--- a/ExcelControl/TGtoBLUEMAX/2_강서양천_강서초_BLM.xlsx
+++ b/ExcelControl/TGtoBLUEMAX/2_강서양천_강서초_BLM.xlsx
@@ -836,7 +836,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD93"/>
+  <dimension ref="A1:AD94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
@@ -1117,7 +1117,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>192.168.0.27_�����PC</t>
+          <t>192.168.0.27_김상훈PC</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1135,7 +1135,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>222.105.216.91_�޸�_NAS</t>
+          <t>222.105.216.91_휴먼_NAS</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
@@ -1146,43 +1146,30 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>default</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
         <v>1</v>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Allow</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>DDERP_192.168.0.150</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>192.168.0.150</t>
+      <c r="L5" t="n">
+        <v>2</v>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>TEST1</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>192.168.50.50-192.168.50.60</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -1194,7 +1181,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Deny</t>
+          <t>Allow</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -1207,30 +1194,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>199.191.56.221</t>
+          <t>DDERP_192.168.0.150</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>199.191.56.221</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>2</v>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>DDNAS_EX_61.40.8.26</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>61.40.8.26</t>
+          <t>192.168.0.150</t>
         </is>
       </c>
     </row>
@@ -1238,6 +1207,19 @@
       <c r="A7" t="n">
         <v>3</v>
       </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Deny</t>
+        </is>
+      </c>
       <c r="F7" t="n">
         <v>2</v>
       </c>
@@ -1248,12 +1230,12 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>34.78.211.173</t>
+          <t>199.191.56.221</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>34.78.211.173</t>
+          <t>199.191.56.221</t>
         </is>
       </c>
       <c r="L7" t="n">
@@ -1261,17 +1243,17 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>H</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>192.168.0.0/24</t>
+          <t>DDNAS_EX_61.40.8.26</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>192.168.0.0/24</t>
+          <t>61.40.8.26</t>
         </is>
       </c>
     </row>
@@ -1289,73 +1271,53 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>94.99.216.4</t>
+          <t>34.78.211.173</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>94.99.216.4</t>
+          <t>34.78.211.173</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>2</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>192.168.0.0/24</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>192.168.0.0/24</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>default</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Deny</t>
-        </is>
+        <v>3</v>
       </c>
       <c r="F9" t="n">
         <v>2</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>H</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>192.168.0.0/24</t>
+          <t>94.99.216.4</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>192.168.0.0/24</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>Sharing_TCP_file</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>tcp</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>137-139</t>
+          <t>94.99.216.4</t>
         </is>
       </c>
     </row>
@@ -1363,14 +1325,45 @@
       <c r="A10" t="n">
         <v>4</v>
       </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Deny</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>192.168.0.0/24</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>192.168.0.0/24</t>
+        </is>
+      </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>Sharing_UDP_file</t>
+          <t>Sharing_TCP_file</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>udp</t>
+          <t>tcp</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
@@ -1395,12 +1388,12 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>TCP_5938</t>
+          <t>Sharing_UDP_file</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>tcp</t>
+          <t>udp</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
@@ -1415,7 +1408,7 @@
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>5938</t>
+          <t>137-139</t>
         </is>
       </c>
     </row>
@@ -1425,7 +1418,7 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>Torrent_TCP_Port</t>
+          <t>TCP_5938</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
@@ -1445,7 +1438,7 @@
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>6881-6889</t>
+          <t>5938</t>
         </is>
       </c>
     </row>
@@ -1455,12 +1448,12 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>Torrent_UDP_Port</t>
+          <t>Torrent_TCP_Port</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>udp</t>
+          <t>tcp</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
@@ -1485,12 +1478,12 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>Virus_TCP_Port_1</t>
+          <t>Torrent_UDP_Port</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>tcp</t>
+          <t>udp</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
@@ -1505,7 +1498,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>6881-6889</t>
         </is>
       </c>
     </row>
@@ -1515,7 +1508,7 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>Virus_TCP_Port_10</t>
+          <t>Virus_TCP_Port_1</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
@@ -1535,7 +1528,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>3127</t>
+          <t>111</t>
         </is>
       </c>
     </row>
@@ -1545,7 +1538,7 @@
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>Virus_TCP_Port_12</t>
+          <t>Virus_TCP_Port_10</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
@@ -1565,7 +1558,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>3410</t>
+          <t>3127</t>
         </is>
       </c>
     </row>
@@ -1575,7 +1568,7 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>Virus_TCP_Port_13</t>
+          <t>Virus_TCP_Port_12</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
@@ -1595,7 +1588,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>4899</t>
+          <t>3410</t>
         </is>
       </c>
     </row>
@@ -1605,7 +1598,7 @@
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>Virus_TCP_Port_14</t>
+          <t>Virus_TCP_Port_13</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
@@ -1625,7 +1618,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>5000</t>
+          <t>4899</t>
         </is>
       </c>
     </row>
@@ -1635,7 +1628,7 @@
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>Virus_TCP_Port_15</t>
+          <t>Virus_TCP_Port_14</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
@@ -1655,7 +1648,7 @@
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>5554</t>
+          <t>5000</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1658,7 @@
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>Virus_TCP_Port_16</t>
+          <t>Virus_TCP_Port_15</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
@@ -1685,7 +1678,7 @@
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>5900</t>
+          <t>5554</t>
         </is>
       </c>
     </row>
@@ -1695,7 +1688,7 @@
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>Virus_TCP_Port_17</t>
+          <t>Virus_TCP_Port_16</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
@@ -1715,7 +1708,7 @@
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>6000</t>
+          <t>5900</t>
         </is>
       </c>
     </row>
@@ -1725,7 +1718,7 @@
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>Virus_TCP_Port_18</t>
+          <t>Virus_TCP_Port_17</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
@@ -1745,7 +1738,7 @@
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>6129</t>
+          <t>6000</t>
         </is>
       </c>
     </row>
@@ -1755,7 +1748,7 @@
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>Virus_TCP_Port_19</t>
+          <t>Virus_TCP_Port_18</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
@@ -1775,7 +1768,7 @@
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>6667</t>
+          <t>6129</t>
         </is>
       </c>
     </row>
@@ -1785,7 +1778,7 @@
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>Virus_TCP_Port_2</t>
+          <t>Virus_TCP_Port_19</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
@@ -1805,7 +1798,7 @@
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>6667</t>
         </is>
       </c>
     </row>
@@ -1815,7 +1808,7 @@
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>Virus_TCP_Port_20</t>
+          <t>Virus_TCP_Port_2</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
@@ -1835,7 +1828,7 @@
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>9898</t>
+          <t>135</t>
         </is>
       </c>
     </row>
@@ -1845,7 +1838,7 @@
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>Virus_TCP_Port_21</t>
+          <t>Virus_TCP_Port_20</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
@@ -1865,7 +1858,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>9996</t>
+          <t>9898</t>
         </is>
       </c>
     </row>
@@ -1875,7 +1868,7 @@
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>Virus_TCP_Port_22</t>
+          <t>Virus_TCP_Port_21</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
@@ -1895,7 +1888,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>65520</t>
+          <t>9996</t>
         </is>
       </c>
     </row>
@@ -1905,7 +1898,7 @@
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>Virus_TCP_Port_3</t>
+          <t>Virus_TCP_Port_22</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
@@ -1925,7 +1918,7 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>65520</t>
         </is>
       </c>
     </row>
@@ -1935,7 +1928,7 @@
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>Virus_TCP_Port_4</t>
+          <t>Virus_TCP_Port_3</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
@@ -1955,7 +1948,7 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>139</t>
         </is>
       </c>
     </row>
@@ -1965,7 +1958,7 @@
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>Virus_TCP_Port_5</t>
+          <t>Virus_TCP_Port_4</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
@@ -1985,7 +1978,7 @@
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>1025</t>
+          <t>445</t>
         </is>
       </c>
     </row>
@@ -1995,7 +1988,7 @@
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>Virus_TCP_Port_6</t>
+          <t>Virus_TCP_Port_5</t>
         </is>
       </c>
       <c r="T31" t="inlineStr">
@@ -2015,7 +2008,7 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>1080</t>
+          <t>1025</t>
         </is>
       </c>
     </row>
@@ -2025,7 +2018,7 @@
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>Virus_TCP_Port_7</t>
+          <t>Virus_TCP_Port_6</t>
         </is>
       </c>
       <c r="T32" t="inlineStr">
@@ -2045,7 +2038,7 @@
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>1433</t>
+          <t>1080</t>
         </is>
       </c>
     </row>
@@ -2055,7 +2048,7 @@
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>Virus_TCP_Port_8</t>
+          <t>Virus_TCP_Port_7</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
@@ -2075,7 +2068,7 @@
       </c>
       <c r="W33" t="inlineStr">
         <is>
-          <t>1434</t>
+          <t>1433</t>
         </is>
       </c>
     </row>
@@ -2085,7 +2078,7 @@
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>Virus_TCP_Port_9</t>
+          <t>Virus_TCP_Port_8</t>
         </is>
       </c>
       <c r="T34" t="inlineStr">
@@ -2105,7 +2098,7 @@
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>2745</t>
+          <t>1434</t>
         </is>
       </c>
     </row>
@@ -2115,12 +2108,12 @@
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>Virus_UDP_Port_1</t>
+          <t>Virus_TCP_Port_9</t>
         </is>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>udp</t>
+          <t>tcp</t>
         </is>
       </c>
       <c r="U35" t="inlineStr">
@@ -2135,7 +2128,7 @@
       </c>
       <c r="W35" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>2745</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2138,7 @@
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>Virus_UDP_Port_2</t>
+          <t>Virus_UDP_Port_1</t>
         </is>
       </c>
       <c r="T36" t="inlineStr">
@@ -2165,7 +2158,7 @@
       </c>
       <c r="W36" t="inlineStr">
         <is>
-          <t>1025</t>
+          <t>135</t>
         </is>
       </c>
     </row>
@@ -2175,7 +2168,7 @@
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>Virus_UDP_Port_3</t>
+          <t>Virus_UDP_Port_2</t>
         </is>
       </c>
       <c r="T37" t="inlineStr">
@@ -2195,7 +2188,7 @@
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>1080</t>
+          <t>1025</t>
         </is>
       </c>
     </row>
@@ -2205,7 +2198,7 @@
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>Virus_UDP_Port_4</t>
+          <t>Virus_UDP_Port_3</t>
         </is>
       </c>
       <c r="T38" t="inlineStr">
@@ -2225,7 +2218,7 @@
       </c>
       <c r="W38" t="inlineStr">
         <is>
-          <t>1433</t>
+          <t>1080</t>
         </is>
       </c>
     </row>
@@ -2235,7 +2228,7 @@
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>Virus_UDP_Port_5</t>
+          <t>Virus_UDP_Port_4</t>
         </is>
       </c>
       <c r="T39" t="inlineStr">
@@ -2255,7 +2248,7 @@
       </c>
       <c r="W39" t="inlineStr">
         <is>
-          <t>3410</t>
+          <t>1433</t>
         </is>
       </c>
     </row>
@@ -2265,7 +2258,7 @@
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>Virus_UDP_Port_6</t>
+          <t>Virus_UDP_Port_5</t>
         </is>
       </c>
       <c r="T40" t="inlineStr">
@@ -2285,61 +2278,37 @@
       </c>
       <c r="W40" t="inlineStr">
         <is>
-          <t>5000</t>
+          <t>3410</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>5</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>default</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>1</v>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>Deny</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>2</v>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>192.168.0.0/24</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>192.168.0.0/24</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>2</v>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="P41" t="inlineStr">
-        <is>
-          <t>207.189.104.86</t>
-        </is>
-      </c>
-      <c r="Q41" t="inlineStr">
-        <is>
-          <t>207.189.104.86</t>
+        <v>4</v>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>Virus_UDP_Port_6</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>udp</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>5000</t>
         </is>
       </c>
     </row>
@@ -2347,6 +2316,37 @@
       <c r="A42" t="n">
         <v>5</v>
       </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>1</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Deny</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>2</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>192.168.0.0/24</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>192.168.0.0/24</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>2</v>
       </c>
@@ -2357,12 +2357,12 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>208.73.212.12</t>
+          <t>207.189.104.86</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>208.73.212.12</t>
+          <t>207.189.104.86</t>
         </is>
       </c>
     </row>
@@ -2380,12 +2380,12 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>211.149.178.195</t>
+          <t>208.73.212.12</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>211.149.178.195</t>
+          <t>208.73.212.12</t>
         </is>
       </c>
     </row>
@@ -2403,12 +2403,12 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>216.52.184.243</t>
+          <t>211.149.178.195</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>216.52.184.243</t>
+          <t>211.149.178.195</t>
         </is>
       </c>
     </row>
@@ -2426,12 +2426,12 @@
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>34.78.211.173</t>
+          <t>216.52.184.243</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>34.78.211.173</t>
+          <t>216.52.184.243</t>
         </is>
       </c>
     </row>
@@ -2449,12 +2449,12 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>64.74.223.9</t>
+          <t>34.78.211.173</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>64.74.223.9</t>
+          <t>34.78.211.173</t>
         </is>
       </c>
     </row>
@@ -2472,12 +2472,12 @@
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>66.45.238.61</t>
+          <t>64.74.223.9</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>66.45.238.61</t>
+          <t>64.74.223.9</t>
         </is>
       </c>
     </row>
@@ -2495,12 +2495,12 @@
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>69.25.142.57</t>
+          <t>66.45.238.61</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>69.25.142.57</t>
+          <t>66.45.238.61</t>
         </is>
       </c>
     </row>
@@ -2518,12 +2518,12 @@
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>72.10.166.178</t>
+          <t>69.25.142.57</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>72.10.166.178</t>
+          <t>69.25.142.57</t>
         </is>
       </c>
     </row>
@@ -2541,12 +2541,12 @@
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>74.222.13.122</t>
+          <t>72.10.166.178</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>74.222.13.122</t>
+          <t>72.10.166.178</t>
         </is>
       </c>
     </row>
@@ -2564,12 +2564,12 @@
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>81.95.146.251</t>
+          <t>74.222.13.122</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>81.95.146.251</t>
+          <t>74.222.13.122</t>
         </is>
       </c>
     </row>
@@ -2587,12 +2587,12 @@
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>81.95.153.105</t>
+          <t>81.95.146.251</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>81.95.153.105</t>
+          <t>81.95.146.251</t>
         </is>
       </c>
     </row>
@@ -2610,12 +2610,12 @@
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>85.114.143.2</t>
+          <t>81.95.153.105</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>85.114.143.2</t>
+          <t>81.95.153.105</t>
         </is>
       </c>
     </row>
@@ -2633,12 +2633,12 @@
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>85.128.193.242</t>
+          <t>85.114.143.2</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>85.128.193.242</t>
+          <t>85.114.143.2</t>
         </is>
       </c>
     </row>
@@ -2656,12 +2656,12 @@
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>89.149.230.33</t>
+          <t>85.128.193.242</t>
         </is>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>89.149.230.33</t>
+          <t>85.128.193.242</t>
         </is>
       </c>
     </row>
@@ -2679,66 +2679,35 @@
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>89.188.16.60</t>
+          <t>89.149.230.33</t>
         </is>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>89.188.16.60</t>
+          <t>89.149.230.33</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>6</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>default</t>
-        </is>
-      </c>
-      <c r="C57" t="n">
-        <v>1</v>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>Deny</t>
-        </is>
-      </c>
-      <c r="F57" t="n">
-        <v>2</v>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>207.189.104.86</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>207.189.104.86</t>
-        </is>
+        <v>5</v>
       </c>
       <c r="L57" t="n">
         <v>2</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>H</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>192.168.0.0/24</t>
+          <t>89.188.16.60</t>
         </is>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>192.168.0.0/24</t>
+          <t>89.188.16.60</t>
         </is>
       </c>
     </row>
@@ -2746,6 +2715,19 @@
       <c r="A58" t="n">
         <v>6</v>
       </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>1</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Deny</t>
+        </is>
+      </c>
       <c r="F58" t="n">
         <v>2</v>
       </c>
@@ -2756,12 +2738,30 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>208.73.212.12</t>
+          <t>207.189.104.86</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>208.73.212.12</t>
+          <t>207.189.104.86</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>2</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>192.168.0.0/24</t>
+        </is>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>192.168.0.0/24</t>
         </is>
       </c>
     </row>
@@ -2779,12 +2779,12 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>211.149.178.195</t>
+          <t>208.73.212.12</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>211.149.178.195</t>
+          <t>208.73.212.12</t>
         </is>
       </c>
     </row>
@@ -2802,12 +2802,12 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>216.52.184.243</t>
+          <t>211.149.178.195</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>216.52.184.243</t>
+          <t>211.149.178.195</t>
         </is>
       </c>
     </row>
@@ -2825,12 +2825,12 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>34.78.211.173</t>
+          <t>216.52.184.243</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>34.78.211.173</t>
+          <t>216.52.184.243</t>
         </is>
       </c>
     </row>
@@ -2848,12 +2848,12 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>64.74.223.9</t>
+          <t>34.78.211.173</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>64.74.223.9</t>
+          <t>34.78.211.173</t>
         </is>
       </c>
     </row>
@@ -2871,12 +2871,12 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>66.45.238.61</t>
+          <t>64.74.223.9</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>66.45.238.61</t>
+          <t>64.74.223.9</t>
         </is>
       </c>
     </row>
@@ -2894,12 +2894,12 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>69.25.142.57</t>
+          <t>66.45.238.61</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>69.25.142.57</t>
+          <t>66.45.238.61</t>
         </is>
       </c>
     </row>
@@ -2917,12 +2917,12 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>72.10.166.178</t>
+          <t>69.25.142.57</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>72.10.166.178</t>
+          <t>69.25.142.57</t>
         </is>
       </c>
     </row>
@@ -2940,12 +2940,12 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>74.222.13.122</t>
+          <t>72.10.166.178</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>74.222.13.122</t>
+          <t>72.10.166.178</t>
         </is>
       </c>
     </row>
@@ -2963,12 +2963,12 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>81.95.146.251</t>
+          <t>74.222.13.122</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>81.95.146.251</t>
+          <t>74.222.13.122</t>
         </is>
       </c>
     </row>
@@ -2986,12 +2986,12 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>81.95.153.105</t>
+          <t>81.95.146.251</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>81.95.153.105</t>
+          <t>81.95.146.251</t>
         </is>
       </c>
     </row>
@@ -3009,12 +3009,12 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>85.114.143.2</t>
+          <t>81.95.153.105</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>85.114.143.2</t>
+          <t>81.95.153.105</t>
         </is>
       </c>
     </row>
@@ -3032,12 +3032,12 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>85.128.193.242</t>
+          <t>85.114.143.2</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>85.128.193.242</t>
+          <t>85.114.143.2</t>
         </is>
       </c>
     </row>
@@ -3055,12 +3055,12 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>89.149.230.33</t>
+          <t>85.128.193.242</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>89.149.230.33</t>
+          <t>85.128.193.242</t>
         </is>
       </c>
     </row>
@@ -3078,31 +3078,18 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>89.188.16.60</t>
+          <t>89.149.230.33</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>89.188.16.60</t>
+          <t>89.149.230.33</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>7</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>default</t>
-        </is>
-      </c>
-      <c r="C73" t="n">
-        <v>1</v>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>Allow</t>
-        </is>
+        <v>6</v>
       </c>
       <c r="F73" t="n">
         <v>2</v>
@@ -3114,37 +3101,12 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>DDBackupNAS_192.168.0.210</t>
+          <t>89.188.16.60</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>192.168.0.210</t>
-        </is>
-      </c>
-      <c r="S73" t="inlineStr">
-        <is>
-          <t>DNS</t>
-        </is>
-      </c>
-      <c r="T73" t="inlineStr">
-        <is>
-          <t>udp</t>
-        </is>
-      </c>
-      <c r="U73" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="V73" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="W73" t="inlineStr">
-        <is>
-          <t>53</t>
+          <t>89.188.16.60</t>
         </is>
       </c>
     </row>
@@ -3152,6 +3114,19 @@
       <c r="A74" t="n">
         <v>7</v>
       </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>1</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Allow</t>
+        </is>
+      </c>
       <c r="F74" t="n">
         <v>2</v>
       </c>
@@ -3162,17 +3137,17 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>DDERP_192.168.0.150</t>
+          <t>DDBackupNAS_192.168.0.210</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>192.168.0.150</t>
+          <t>192.168.0.210</t>
         </is>
       </c>
       <c r="S74" t="inlineStr">
         <is>
-          <t>NTP</t>
+          <t>DNS</t>
         </is>
       </c>
       <c r="T74" t="inlineStr">
@@ -3192,7 +3167,7 @@
       </c>
       <c r="W74" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>53</t>
         </is>
       </c>
     </row>
@@ -3210,66 +3185,60 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>FILESVR_192.168.0.50</t>
+          <t>DDERP_192.168.0.150</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>192.168.0.50</t>
+          <t>192.168.0.150</t>
+        </is>
+      </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>NTP</t>
+        </is>
+      </c>
+      <c r="T75" t="inlineStr">
+        <is>
+          <t>udp</t>
+        </is>
+      </c>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="W75" t="inlineStr">
+        <is>
+          <t>123</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>8</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>default</t>
-        </is>
-      </c>
-      <c r="C76" t="n">
-        <v>1</v>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>Allow</t>
-        </is>
+        <v>7</v>
       </c>
       <c r="F76" t="n">
         <v>2</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>H</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>211.241.226.0/24</t>
+          <t>FILESVR_192.168.0.50</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>211.241.226.0/24</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>2</v>
-      </c>
-      <c r="O76" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="P76" t="inlineStr">
-        <is>
-          <t>DDERP_192.168.0.150</t>
-        </is>
-      </c>
-      <c r="Q76" t="inlineStr">
-        <is>
-          <t>192.168.0.150</t>
+          <t>192.168.0.50</t>
         </is>
       </c>
     </row>
@@ -3277,6 +3246,37 @@
       <c r="A77" t="n">
         <v>8</v>
       </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>1</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Allow</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>2</v>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>211.241.226.0/24</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>211.241.226.0/24</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>2</v>
       </c>
@@ -3287,48 +3287,35 @@
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>DDNAS_EX_61.40.8.26</t>
+          <t>DDERP_192.168.0.150</t>
         </is>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>61.40.8.26</t>
+          <t>192.168.0.150</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>9</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>default</t>
-        </is>
-      </c>
-      <c r="C78" t="n">
-        <v>1</v>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>Deny</t>
-        </is>
-      </c>
-      <c r="F78" t="n">
-        <v>2</v>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>192.168.0.245_BACK</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>192.168.0.245</t>
+        <v>8</v>
+      </c>
+      <c r="L78" t="n">
+        <v>2</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>DDNAS_EX_61.40.8.26</t>
+        </is>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>61.40.8.26</t>
         </is>
       </c>
     </row>
@@ -3336,6 +3323,19 @@
       <c r="A79" t="n">
         <v>9</v>
       </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>1</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Deny</t>
+        </is>
+      </c>
       <c r="F79" t="n">
         <v>2</v>
       </c>
@@ -3346,12 +3346,12 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>DDBackupNAS_192.168.0.210</t>
+          <t>192.168.0.245_BACK</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>192.168.0.210</t>
+          <t>192.168.0.245</t>
         </is>
       </c>
     </row>
@@ -3369,12 +3369,12 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>DDERP_192.168.0.150</t>
+          <t>DDBackupNAS_192.168.0.210</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>192.168.0.150</t>
+          <t>192.168.0.210</t>
         </is>
       </c>
     </row>
@@ -3392,31 +3392,18 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>FILESVR_192.168.0.50</t>
+          <t>DDERP_192.168.0.150</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>192.168.0.50</t>
+          <t>192.168.0.150</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>10</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>default</t>
-        </is>
-      </c>
-      <c r="C82" t="n">
-        <v>1</v>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>Allow</t>
-        </is>
+        <v>9</v>
       </c>
       <c r="F82" t="n">
         <v>2</v>
@@ -3428,18 +3415,18 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>192.168.0.34</t>
+          <t>FILESVR_192.168.0.50</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>192.168.0.35</t>
+          <t>192.168.0.50</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -3454,47 +3441,22 @@
           <t>Allow</t>
         </is>
       </c>
-      <c r="L83" t="n">
-        <v>2</v>
-      </c>
-      <c r="O83" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="P83" t="inlineStr">
-        <is>
-          <t>DDNAS_192.168.0.250</t>
-        </is>
-      </c>
-      <c r="Q83" t="inlineStr">
-        <is>
-          <t>192.168.0.250</t>
-        </is>
-      </c>
-      <c r="S83" t="inlineStr">
-        <is>
-          <t>FTP</t>
-        </is>
-      </c>
-      <c r="T83" t="inlineStr">
-        <is>
-          <t>tcp</t>
-        </is>
-      </c>
-      <c r="U83" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="V83" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="W83" t="inlineStr">
-        <is>
-          <t>21</t>
+      <c r="F83" t="n">
+        <v>2</v>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>192.168.0.34</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>192.168.0.35</t>
         </is>
       </c>
     </row>
@@ -3502,6 +3464,19 @@
       <c r="A84" t="n">
         <v>11</v>
       </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>1</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Allow</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>2</v>
       </c>
@@ -3512,17 +3487,17 @@
       </c>
       <c r="P84" t="inlineStr">
         <is>
-          <t>DDNAS_EX_61.40.8.26</t>
+          <t>DDNAS_192.168.0.250</t>
         </is>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>61.40.8.26</t>
+          <t>192.168.0.250</t>
         </is>
       </c>
       <c r="S84" t="inlineStr">
         <is>
-          <t>FTP-data</t>
+          <t>FTP</t>
         </is>
       </c>
       <c r="T84" t="inlineStr">
@@ -3542,7 +3517,7 @@
       </c>
       <c r="W84" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>21</t>
         </is>
       </c>
     </row>
@@ -3550,9 +3525,27 @@
       <c r="A85" t="n">
         <v>11</v>
       </c>
+      <c r="L85" t="n">
+        <v>2</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>DDNAS_EX_61.40.8.26</t>
+        </is>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>61.40.8.26</t>
+        </is>
+      </c>
       <c r="S85" t="inlineStr">
         <is>
-          <t>HTTP</t>
+          <t>FTP-data</t>
         </is>
       </c>
       <c r="T85" t="inlineStr">
@@ -3572,61 +3565,37 @@
       </c>
       <c r="W85" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>20</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>12</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>default</t>
-        </is>
-      </c>
-      <c r="C86" t="n">
-        <v>1</v>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>Allow</t>
-        </is>
-      </c>
-      <c r="F86" t="n">
-        <v>2</v>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>VPN</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>172.16.0.0/24</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>2</v>
-      </c>
-      <c r="O86" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="P86" t="inlineStr">
-        <is>
-          <t>DDERP_192.168.0.150</t>
-        </is>
-      </c>
-      <c r="Q86" t="inlineStr">
-        <is>
-          <t>192.168.0.150</t>
+        <v>11</v>
+      </c>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>HTTP</t>
+        </is>
+      </c>
+      <c r="T86" t="inlineStr">
+        <is>
+          <t>tcp</t>
+        </is>
+      </c>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="V86" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="W86" t="inlineStr">
+        <is>
+          <t>80</t>
         </is>
       </c>
     </row>
@@ -3634,6 +3603,37 @@
       <c r="A87" t="n">
         <v>12</v>
       </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>1</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Allow</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>2</v>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>VPN</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>172.16.0.0/24</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>2</v>
       </c>
@@ -3644,12 +3644,12 @@
       </c>
       <c r="P87" t="inlineStr">
         <is>
-          <t>DDNAS_192.168.0.250</t>
+          <t>DDERP_192.168.0.150</t>
         </is>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>192.168.0.250</t>
+          <t>192.168.0.150</t>
         </is>
       </c>
     </row>
@@ -3667,12 +3667,12 @@
       </c>
       <c r="P88" t="inlineStr">
         <is>
-          <t>FILESVR_192.168.0.50</t>
+          <t>DDNAS_192.168.0.250</t>
         </is>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>192.168.0.50</t>
+          <t>192.168.0.250</t>
         </is>
       </c>
     </row>
@@ -3685,59 +3685,46 @@
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>H</t>
         </is>
       </c>
       <c r="P89" t="inlineStr">
         <is>
-          <t>INT_SUB_ALL</t>
+          <t>FILESVR_192.168.0.50</t>
         </is>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>192.168.10.0/24</t>
+          <t>192.168.0.50</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>13</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>default</t>
-        </is>
-      </c>
-      <c r="C90" t="n">
-        <v>1</v>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>Allow</t>
-        </is>
-      </c>
-      <c r="F90" t="n">
-        <v>2</v>
-      </c>
-      <c r="I90" t="inlineStr">
+        <v>12</v>
+      </c>
+      <c r="L90" t="n">
+        <v>2</v>
+      </c>
+      <c r="O90" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>192.168.0.0/24</t>
-        </is>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>192.168.0.0/24</t>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>INT_SUB_ALL</t>
+        </is>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>192.168.10.0/24</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -3770,28 +3757,10 @@
           <t>192.168.0.0/24</t>
         </is>
       </c>
-      <c r="L91" t="n">
-        <v>2</v>
-      </c>
-      <c r="O91" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="P91" t="inlineStr">
-        <is>
-          <t>INT_SUB_ALL</t>
-        </is>
-      </c>
-      <c r="Q91" t="inlineStr">
-        <is>
-          <t>192.168.10.0/24</t>
-        </is>
-      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -3816,36 +3785,36 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
+          <t>192.168.0.0/24</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>192.168.0.0/24</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>2</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
           <t>INT_SUB_ALL</t>
         </is>
       </c>
-      <c r="K92" t="inlineStr">
+      <c r="Q92" t="inlineStr">
         <is>
           <t>192.168.10.0/24</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>2</v>
-      </c>
-      <c r="O92" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="P92" t="inlineStr">
-        <is>
-          <t>192.168.0.0/24</t>
-        </is>
-      </c>
-      <c r="Q92" t="inlineStr">
-        <is>
-          <t>192.168.0.0/24</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -3856,6 +3825,60 @@
         <v>1</v>
       </c>
       <c r="E93" t="inlineStr">
+        <is>
+          <t>Allow</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>2</v>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>INT_SUB_ALL</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>192.168.10.0/24</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>2</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>192.168.0.0/24</t>
+        </is>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>192.168.0.0/24</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>16</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>1</v>
+      </c>
+      <c r="E94" t="inlineStr">
         <is>
           <t>Deny</t>
         </is>

--- a/ExcelControl/TGtoBLUEMAX/2_강서양천_강서초_BLM.xlsx
+++ b/ExcelControl/TGtoBLUEMAX/2_강서양천_강서초_BLM.xlsx
@@ -1358,12 +1358,12 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>Sharing_TCP_file</t>
+          <t>SHARING_TCP_FILE</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>tcp</t>
+          <t>TCP</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
@@ -1388,12 +1388,12 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>Sharing_UDP_file</t>
+          <t>SHARING_UDP_FILE</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>udp</t>
+          <t>UDP</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
@@ -1423,7 +1423,7 @@
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>tcp</t>
+          <t>TCP</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
@@ -1448,12 +1448,12 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>Torrent_TCP_Port</t>
+          <t>TORRENT_TCP_PORT</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>tcp</t>
+          <t>TCP</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
@@ -1478,12 +1478,12 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>Torrent_UDP_Port</t>
+          <t>TORRENT_UDP_PORT</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>udp</t>
+          <t>UDP</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
@@ -1508,12 +1508,12 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>Virus_TCP_Port_1</t>
+          <t>VIRUS_TCP_PORT_1</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>tcp</t>
+          <t>TCP</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
@@ -1538,12 +1538,12 @@
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>Virus_TCP_Port_10</t>
+          <t>VIRUS_TCP_PORT_10</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>tcp</t>
+          <t>TCP</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
@@ -1568,12 +1568,12 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>Virus_TCP_Port_12</t>
+          <t>VIRUS_TCP_PORT_12</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>tcp</t>
+          <t>TCP</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
@@ -1598,12 +1598,12 @@
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>Virus_TCP_Port_13</t>
+          <t>VIRUS_TCP_PORT_13</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>tcp</t>
+          <t>TCP</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
@@ -1628,12 +1628,12 @@
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>Virus_TCP_Port_14</t>
+          <t>VIRUS_TCP_PORT_14</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>tcp</t>
+          <t>TCP</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
@@ -1658,12 +1658,12 @@
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>Virus_TCP_Port_15</t>
+          <t>VIRUS_TCP_PORT_15</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>tcp</t>
+          <t>TCP</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
@@ -1688,12 +1688,12 @@
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>Virus_TCP_Port_16</t>
+          <t>VIRUS_TCP_PORT_16</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>tcp</t>
+          <t>TCP</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
@@ -1718,12 +1718,12 @@
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>Virus_TCP_Port_17</t>
+          <t>VIRUS_TCP_PORT_17</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>tcp</t>
+          <t>TCP</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
@@ -1748,12 +1748,12 @@
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>Virus_TCP_Port_18</t>
+          <t>VIRUS_TCP_PORT_18</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>tcp</t>
+          <t>TCP</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
@@ -1778,12 +1778,12 @@
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>Virus_TCP_Port_19</t>
+          <t>VIRUS_TCP_PORT_19</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>tcp</t>
+          <t>TCP</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
@@ -1808,12 +1808,12 @@
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>Virus_TCP_Port_2</t>
+          <t>VIRUS_TCP_PORT_2</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>tcp</t>
+          <t>TCP</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
@@ -1838,12 +1838,12 @@
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>Virus_TCP_Port_20</t>
+          <t>VIRUS_TCP_PORT_20</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>tcp</t>
+          <t>TCP</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
@@ -1868,12 +1868,12 @@
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>Virus_TCP_Port_21</t>
+          <t>VIRUS_TCP_PORT_21</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>tcp</t>
+          <t>TCP</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
@@ -1898,12 +1898,12 @@
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>Virus_TCP_Port_22</t>
+          <t>VIRUS_TCP_PORT_22</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>tcp</t>
+          <t>TCP</t>
         </is>
       </c>
       <c r="U28" t="inlineStr">
@@ -1928,12 +1928,12 @@
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>Virus_TCP_Port_3</t>
+          <t>VIRUS_TCP_PORT_3</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>tcp</t>
+          <t>TCP</t>
         </is>
       </c>
       <c r="U29" t="inlineStr">
@@ -1958,12 +1958,12 @@
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>Virus_TCP_Port_4</t>
+          <t>VIRUS_TCP_PORT_4</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>tcp</t>
+          <t>TCP</t>
         </is>
       </c>
       <c r="U30" t="inlineStr">
@@ -1988,12 +1988,12 @@
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>Virus_TCP_Port_5</t>
+          <t>VIRUS_TCP_PORT_5</t>
         </is>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>tcp</t>
+          <t>TCP</t>
         </is>
       </c>
       <c r="U31" t="inlineStr">
@@ -2018,12 +2018,12 @@
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>Virus_TCP_Port_6</t>
+          <t>VIRUS_TCP_PORT_6</t>
         </is>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>tcp</t>
+          <t>TCP</t>
         </is>
       </c>
       <c r="U32" t="inlineStr">
@@ -2048,12 +2048,12 @@
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>Virus_TCP_Port_7</t>
+          <t>VIRUS_TCP_PORT_7</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>tcp</t>
+          <t>TCP</t>
         </is>
       </c>
       <c r="U33" t="inlineStr">
@@ -2078,12 +2078,12 @@
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>Virus_TCP_Port_8</t>
+          <t>VIRUS_TCP_PORT_8</t>
         </is>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>tcp</t>
+          <t>TCP</t>
         </is>
       </c>
       <c r="U34" t="inlineStr">
@@ -2108,12 +2108,12 @@
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>Virus_TCP_Port_9</t>
+          <t>VIRUS_TCP_PORT_9</t>
         </is>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>tcp</t>
+          <t>TCP</t>
         </is>
       </c>
       <c r="U35" t="inlineStr">
@@ -2138,12 +2138,12 @@
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>Virus_UDP_Port_1</t>
+          <t>VIRUS_UDP_PORT_1</t>
         </is>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>udp</t>
+          <t>UDP</t>
         </is>
       </c>
       <c r="U36" t="inlineStr">
@@ -2168,12 +2168,12 @@
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>Virus_UDP_Port_2</t>
+          <t>VIRUS_UDP_PORT_2</t>
         </is>
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>udp</t>
+          <t>UDP</t>
         </is>
       </c>
       <c r="U37" t="inlineStr">
@@ -2198,12 +2198,12 @@
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>Virus_UDP_Port_3</t>
+          <t>VIRUS_UDP_PORT_3</t>
         </is>
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>udp</t>
+          <t>UDP</t>
         </is>
       </c>
       <c r="U38" t="inlineStr">
@@ -2228,12 +2228,12 @@
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>Virus_UDP_Port_4</t>
+          <t>VIRUS_UDP_PORT_4</t>
         </is>
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>udp</t>
+          <t>UDP</t>
         </is>
       </c>
       <c r="U39" t="inlineStr">
@@ -2258,12 +2258,12 @@
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>Virus_UDP_Port_5</t>
+          <t>VIRUS_UDP_PORT_5</t>
         </is>
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>udp</t>
+          <t>UDP</t>
         </is>
       </c>
       <c r="U40" t="inlineStr">
@@ -2288,12 +2288,12 @@
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>Virus_UDP_Port_6</t>
+          <t>VIRUS_UDP_PORT_6</t>
         </is>
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t>udp</t>
+          <t>UDP</t>
         </is>
       </c>
       <c r="U41" t="inlineStr">
@@ -3152,7 +3152,7 @@
       </c>
       <c r="T74" t="inlineStr">
         <is>
-          <t>udp</t>
+          <t>UDP</t>
         </is>
       </c>
       <c r="U74" t="inlineStr">
@@ -3200,7 +3200,7 @@
       </c>
       <c r="T75" t="inlineStr">
         <is>
-          <t>udp</t>
+          <t>UDP</t>
         </is>
       </c>
       <c r="U75" t="inlineStr">
@@ -3502,7 +3502,7 @@
       </c>
       <c r="T84" t="inlineStr">
         <is>
-          <t>tcp</t>
+          <t>TCP</t>
         </is>
       </c>
       <c r="U84" t="inlineStr">
@@ -3545,12 +3545,12 @@
       </c>
       <c r="S85" t="inlineStr">
         <is>
-          <t>FTP-data</t>
+          <t>FTP-DATA</t>
         </is>
       </c>
       <c r="T85" t="inlineStr">
         <is>
-          <t>tcp</t>
+          <t>TCP</t>
         </is>
       </c>
       <c r="U85" t="inlineStr">
@@ -3580,7 +3580,7 @@
       </c>
       <c r="T86" t="inlineStr">
         <is>
-          <t>tcp</t>
+          <t>TCP</t>
         </is>
       </c>
       <c r="U86" t="inlineStr">
